--- a/news_data/2015_12.xlsx
+++ b/news_data/2015_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,12 +22,69 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 내년부터 관광객 유치목표 수치 없앤다</t>
+  </si>
+  <si>
+    <t>제주도, 내년부터 관광객 유치 목표 설정 안하기로</t>
+  </si>
+  <si>
+    <t>제주도, 관광지.올레길.오름 등 화장실 전면 개선</t>
+  </si>
+  <si>
+    <t>제주도 내년 39억 투입 관광지 화장실 정비</t>
+  </si>
+  <si>
+    <t>제주도 2015년 도정홍보 대상 '농업기술원'...최우수 '관광정책과'</t>
+  </si>
+  <si>
+    <t>'스모그 피난' 15만 몰린 제주도…관광객들 북적북적</t>
+  </si>
+  <si>
+    <t>제주도 관광약자 ‘커뮤니케이션 지원보드’ 제작</t>
+  </si>
+  <si>
+    <t>제주도 11개 관광개발사업 기간 연장</t>
+  </si>
+  <si>
+    <t>중국 의료관광객 대거 유입 기대… 제주도 몫인 ‘안전관리’ 보완 필요</t>
+  </si>
+  <si>
+    <t>제주도문화상 관광산업 김용이씨 등 7명 수상</t>
+  </si>
+  <si>
+    <t>제주도 경제성장률 '4.8%'↑..."관광산업이 주도"</t>
+  </si>
+  <si>
+    <t>제주도, 최우수 공영관광지에 절물휴양림 선정</t>
+  </si>
+  <si>
+    <t>제주도, 농어촌체험휴양마을 관광 활성화 워크숍 개최</t>
+  </si>
+  <si>
+    <t>김종덕 문화체육관광부 장관 '제주도, 축하해요'</t>
+  </si>
+  <si>
+    <t>[방송가 경제 진단] "제주도 영리병원, 중국 관광객 미용·성형 목적인가"</t>
+  </si>
+  <si>
+    <t>제주도, 가을 관광주간 효과 '톡톡'</t>
+  </si>
+  <si>
+    <t>제주도관광협회 관광인 송년 친선골프대회 개최</t>
+  </si>
+  <si>
+    <t>제주도 관광객 사상 첫 '1300만명' 돌파</t>
+  </si>
+  <si>
+    <t>제주도관광협회 신임 부회장 장성욱 위원장</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사랑나눔봉사단, '김장 나눔' 행사</t>
+  </si>
+  <si>
     <t>제주도관광협회 장성욱 부회장 선임</t>
   </si>
   <si>
-    <t>제주도관광협회 사랑나눔봉사단, '김장 나눔' 행사</t>
-  </si>
-  <si>
     <t>장성욱 렌터카업분과위원장, 제주도관광협회 부회장에 선임</t>
   </si>
   <si>
@@ -37,19 +94,64 @@
     <t>제주도관광협, 겨울철 관광수요 창출 마케팅 실시</t>
   </si>
   <si>
-    <t>제주도관광협회 장성욱 부회장 선임 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 장성욱 부회장 선임 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회 장성욱 부회장 선임 기자명 고연정 기자 입력 2015.12.11 17:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 신임 장성욱 도관광협회 부회장[제주도민일보=고연정 기자] 제주특별자치도관광협회 김영진 회장은 지난 10일 업종별분과위원장단 회의에서 장성욱 렌트카업분과위원장을 도관광협회 부회장으로 선임했다.이는 그동안 공석으로 남아있던 부회장에 장 신임 부회장을 지명한 것이다.한편 협회 정관상 부회장은 회장이 지명할 수 있다. 수석부회장을 포함한 총 8명을 두게 돼있다. 고연정 기자 jjibi@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 사랑나눔봉사단, '김장 나눔' 행사 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 사랑나눔봉사단, '김장 나눔' 행사 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회 사랑나눔봉사단, '김장 나눔' 행사 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.13 14:46 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 12일 제주웰컴센터에서 소외된 어려운 이웃들을 위한 '김장 나눔활동'을 전개했다.사랑나눔봉사단은 지난 2012년 6월 출범 후 현재 280여명의 후원회원이 활동하고 있으며 제주도내 소외계층 및 사회복지시설 방문 봉사활동, 성금 모금 캠페인, 관광과 문화를 접목한 관광활동 지원, 사회적 이슈와 연계한 지역사회 공헌활동 등을 꾸준히 전개하고 있다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>장성욱 렌터카업분과위원장, 제주도관광협회 부회장에 선임 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 장성욱 렌터카업분과위원장, 제주도관광협회 부회장에 선임 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 장성욱 렌터카업분과위원장, 제주도관광협회 부회장에 선임 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.11 11:50 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 신임 장성욱 제주도관광협회 부회장. ⓒ헤드라인제주 김영진 제주특별자치도관광협회장은 10일 업종별분과위원장단 회의에서 장성욱 렌트카업분과위원장을 제주특별자치도관광협회 부회장으로 선임했다.협회 정관상 부회장은 회장이 지명할 수 있으며, 수석부회장을 포함한 총 8명을 두게 돼 있다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>SK플래닛 T맵, 제주도 관광지 등 소개 : 스포츠동아 본문바로가기 로그인회원가입 지면보기 즐겨찾기 추가 전체메뉴보기 실시간 뉴스 연예 스포츠 포토 아이돌픽 트롯픽 엠엘비파크 인스타그램페이스북트위터검색 전체 검색 영역 전체 검색어 입력 검색 닫기 메뉴닫기 뉴스 실시간뉴스 연예 스포츠 포토 아이돌뉴스 인터뷰 기자스페셜 카툰 아이돌픽 동아닷컴 MLBPARK 비즈N VODA 보스 오늘의 운세 &lt;운수 좋은 날&gt;송혜교, 이제 나이테 느껴지는 성숙미스타들의 핫한 순간들 [화보] SK플래닛 T맵, 제주도 관광지 등 소개입력 2015-12-01 05:45:00 카카오톡 페이스북 공유하기 프린트글씨작게글씨크게 공유하기 닫기 SK플래닛은 제주관광협회로부터 제주도 내 숙박과 렌터카, 음식점, 기념품가게 등 다양한 업체들에 대한 최신 정보와 주요 관광지에서 제공하는 할인혜택 정보를 제공받아 모바일 내비게이션 T맵을 통해 서비스한다(사진). 제주도에서 T맵을 켜고 목적지를 검색하면 주변 추천 관광지와 함께 주변 매장들의 정보가 노출되고, 제주여행포털 하이제주(www.hijeju.or.kr)와의 연계를 통해 추가 관광지 정보나 제휴할인 쿠폰 등을 제공하는 방식이다.[스포츠동아] 베스트 클릭1.김종국 살벌한 몸싸움…사상 초유의 사태 (미우새)2.임성민 미국인 남편 공개…영화 같은 러브스토리 (인생다큐)3.비비, 비키니 벗겨진 무대 회상 “큰일 날 뻔” (아는형님)4.박유진, 16세 임신 고백…남사친의 변심 ‘눈물바다’ (고딩엄빠2)5.‘허경환X임원희X딘딘 vs 김종국’ 맞짱 결과는? (미우새)6.제니, 발 끝까지 명품 휘두르고…우아한 자태 [DAY컷]7.전소민 “양세찬과 아이 생겼다” 폭탄 고백 (런닝맨)8.‘고우림♥’ 김연아 러닝복 입고…물오른 예비신부 미모 [포토화보]9.소이현 산후우울증 고백하며 눈물 “출산 후 27kg 쪘다”10.임성민, 생활고 고백 “적금-연금→국민연금도 중단” (마이웨이) 뉴스스탠드 회사소개 지면광고문의 구독신청 인터넷광고문의ㆍ사업제휴 청소년보호정책(책임자: 구민회) 이용약관 개인정보처리방침 사이트맵 스포츠동아의 모든 콘텐츠를 커뮤니티, 카페, 블로그 등에서 무단 사용하는 것은 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright by sports.donga.com Email</t>
-  </si>
-  <si>
-    <t>제주도관광협, 겨울철 관광수요 창출 마케팅 실시 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협, 겨울철 관광수요 창출 마케팅 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협, 겨울철 관광수요 창출 마케팅 실시 기자명 고나연 기자 입력 2015.12.07 07:46 수정 2015.12.07 07:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난 2일 대구백화점과 3일 서울 종로구 인사동 일대에서 겨울철 제주관광수요 창출을 위한 거리 대면 마케팅 행사를 실시했다고 밝혔다.이번 행사는 지역, 테마, 부문별 제주지역 전문여행사에서 개발한 이색체험 상품인 “행복이 물드는 돌코롬한 제주바당” 상품, “골프체험상품”, 힐링과 체험을 결합한 “멘도롱 또똣 제주여행” 등 거리에서 제주관광상품을 소개했다.이어 자연식재료를 활용한 먹거리 체험과 자연염색 체험 상품인 “메아리 소리가 들려오는 제주여행” 등 여행상품에 대해 거리에서 시민들을 대상으로 직접 대면해 상품을 홍보하는 행사를 실시했다. 이와 함께 이번 행사는 제주들불축제 등 제주시 관광축제 홍보와 병행해 추진했으며 시민들의 집중도를 높이기 위해 제주의 독특한 문화를 느낄 수 있는 전통민속공연과 제주어 노래 등 다양한 이벤트 체험 프로그램 선보여 서울시민들에게 큰 관심과 호응을 얻었다.관계자는 "관광협회는 이번 행사를 통해 차별화된 제주의 특화상품 개발 및 발굴을 지속 추진해 제주관광 상품 경쟁력을 높이는데 최선의 노력을 다하겠다"고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>제주도, 내년부터 관광객 유치 목표 설정 안하기로 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도, 내년부터 관광객 유치 목표 설정 안하기로 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도, 내년부터 관광객 유치 목표 설정 안하기로 CBS노컷뉴스 김대휘 기자 메일보내기 2015-12-29 12:58 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 앞으로 관광객 유치 목표가 별도로 설정되지 않는다. 제주도는 제주 관광을 양적 성장에서 질적 성장으로 관리하기 위해 내년부터 관광객 유치 목표를 설정하지 않기로 했다. 대신 관광객 체류일수와 1인당 평균 지출비용 등 5대 지표를 1년마다 조사하는 제주도 방문 관광객 실태조사를 실시한다. 제주도 방문 관광객 실태조사는 국가가 인증한 통계 조사로 1년 단위로 조사한 후 그 다음해 발표한다. 관광통계 5대 지표는 관광객 체류일수와 1인당 평균지출비용, 관광객 만족도, 여행형태, 마케팅다변화 지수 등이다. 더 클릭 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "좋은 냄새난다" 병사들 상습 추행 …"징계 가혹"하다는 군 간부 [르포]'나눔이·농부' 판치는 다크웹…'마약과의 전쟁' 비웃나 [칼럼]핵위협 공포에 휩싸인 한반도 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 CBS노컷뉴스 김대휘 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광지.올레길.오름 등 화장실 전면 개선 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광지.올레길.오름 등 화장실 전면 개선 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, 관광지.올레길.오름 등 화장실 전면 개선 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.28 14:23 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 제주도내 관광지 및 올레길 주변, 오름 등에 설치된 화장실을 전면 개선한다고 28일 밝혔다.제주자치도는 내년 사업비 39억원을 투입해 제주도내 공중화장실 373개소를 민간위탁으로 전환해 체계적으로 정비해 국제적 수준의 아름다운 화장실로 조성할 계획이다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 2015년 도정홍보 대상 '농업기술원'...최우수 '관광정책과' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 2015년 도정홍보 대상 '농업기술원'...최우수 '관광정책과' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 2015년 도정홍보 대상 '농업기술원'...최우수 '관광정책과' 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.29 15:25 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 이필호 농업기술원 기술지원국 국장(왼쪽), 현덕준 관광정책과 과장 ⓒ헤드라인제주 제주특별자치도는 2015년도 하반기 도정홍보 우수부서를 평가한 결과, 대상 농업기술원 기술지원국(국장 이필호)이 선정됐다고 29일 밝혔다.또 최우수 부서에는 우수 부서에는 경제정책과(과장 고상호), 장려상에는 돌문화공원관리사무소(소장 임한준)와 에너지산업과(과장 강영돈)가 선정됐다.선정된 29일 오후 2시에 행정부지사실에서 시상한다.대상 수상 부서에는 상패 및 시상금 100만원, 최우수 부서에는 상패 및 시상금 70만원, 우수 부서에는 시상금 50만원, 장려 부서에는 시상금 40만원을 각각 지급됐다.올해 하반기 도정홍보 우수부서 평가는 보도자료 제공실적, 신문ㆍ방송 보도실적, 공무원 기고, 대담 및 인터뷰 등 언론홍보 실적 5개 분야·18개 항목으로 구분해 평가가 이뤄졌다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>'스모그 피난' 15만 몰린 제주도…관광객들 북적북적 | JTBC 뉴스 서비스 메뉴 바로가기 본문 바로가기 아티클 바로가기 프로그램 목록 바로가기 신문 중앙일보 중앙SUNDAY 일간스포츠 Korea Joongang Daily The Korea Daily 조인디 방송 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF JTBC worldwide 멀티플렉스 &amp; 레저 메가박스 필름 소사이어티 클래식 소사이어티 휘닉스 호텔앤드리조트 휘닉스 평창 휘닉스 섭지코지 매거진 &amp; 출판 월간중앙 이코노미스트 포브스코리아 중앙북스 엘르 바자 코스모폴리탄 에스콰이어 전문 콘텐트 조인스랜드 헬스미디어 차이나랩 어문연구소 영어의 신 ESU 서비스 JOINS PRIME 썰리 fol:in JTBC NOW JTBC NEWS OOH MEDIA 중앙멤버십 JJ라이프 렛츠고시골 TJ4대전충청 CLOSE JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF 중앙그룹 브랜드 회원가입 로그인 JTBC 뉴스 방송 편성표 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC Golf 온에어 검색열기 키워드 검색하기 닫기 뉴스홈 속보 정치 경제 사회 국제 문화 연예 스포츠 날씨 다시보기 JTBC 뉴스룸 아침&amp; 썰전 라이브 정치부 회의 보도특집 오픈 저널리즘 타임라인 이슈 VOD 이슈 기자 구독 뉴스제보 JTBC SNS 여론조사 JTBC 뉴스룸 VOD 다시보기 AOD 다시듣기 팩트체크 밀착 카메라 비하인드+ 월페이퍼 카드뉴스 영상구성 랭킹 APP 제보하기 '스모그 피난' 15만 몰린 제주도…관광객들 북적북적 입력 2015-12-25 20:41 크게 작게 프린트 메일 URL 줄이기 페이스북 트위터 복사 URL 줄이기 레이어 닫기 [앵커]이번 크리스마스 연휴에 15만 명 넘는 관광객이 제주도를 찾을 거란 전망이 나오고 있습니다. 이중에는 스모그에 시달리며 깨끗한 공기를 찾아 나선 중국인 관광객도 적지 않습니다. 최충일 기자입니다.[기자]친구 사이인 정현석씨와 양태영씨는 가족동반으로 제주를 찾았습니다.[정현석/대구 관저동 : 방학을 맞이해서 크리스마스 연휴도 같이 껴 있고 해서 좋은 친구, 가족들과 같이 와서 애들과 좋은 추억 가지고 (싶습니다.)]어제(24일)부터 오는 일요일까지 크리스마스 연휴동안 제주를 찾는 관광객은 15만 명이 넘을 전망입니다.지난해 같은기간 12만여 명보다 23% 증가한 것으로 주말로 이어지는 연휴가 한몫했습니다.국내 가족단위 관광객이 주를 이루지만 중국인 관광객도 2만 명 넘게 찾을 예정입니다.[우 하오란/중국 항저우시 : 중국은 요즘에 환경문제가 심각하게 논의되고 있는데, 제주도 도착하고 나서는 공기가 매우 깨끗해 여행하기 좋습니다.]항공기와 호텔 예약률이 90%에 달하면서 제주 관광업계도 활기를 띠고 있습니다.[김정부 팀장/호텔 영업기획 : 가족, 연인을 대상으로 한 호텔 패키지 이용고객이 국내와 중화권에서도 전년 대비 40% 이상 늘었습니다.]한편 제주관광공사는 방치된 공중전화 폐부스를 무인관광안내소로 변신시켜 명소를 찾는 관광객들의 편의를 돕고 있습니다. 관련기사전국서 '성탄 미사'…고속도로 나들이객으로 혼잡 화이트 크리스마스 대신 보름달…38년 만의 '럭키문' 마음 나누는 온정의 손길…산타는 우리 이웃에 산다 쓰고 남은 연탄재로 만든 '트리'…수암골 마을에 온기 성탄전야 환자 찾은 '몸짱 소방관들'…달력 수익금 기부 취재촬영 최충일 / 중앙일보 기자 | 해당 기자의 기사 구독신청 구독해지 이 기자가 쓴 다른 기사 보기 : 제주 오픈카 사망 항소심, 살인 '무죄' 음주운전 치사 '유죄' JTBC 제주 주재 기자 최충일입니다. 아름다운 제주도의 진면목을 보여드리는데 최선을 다하겠습니다. 이메일 문석빈 / 영상취재팀 기자 | 해당 기자의 기사 구독신청 구독해지 이 기자가 쓴 다른 기사 보기 : 태풍 '난마돌' 일 가고시마 상륙…제주서 낚시객 1명 숨져 제주를 책임지는?섬 사나이 문석빈 입니다. 이메일 이전 취재기자 보기 다음 취재기자 보기 이전 다음 JTBC 뉴스 유튜브 공식 채널 구독하기 JTBC 뉴스 페이스북 공식 채널 좋아요 JTBC 뉴스 카카오톡 공식 채널 친구추가 프린트 메일 페이스북 트위터 URL 줄이기 복사 URL 줄이기 레이어 닫기 JTBC 핫클릭</t>
+  </si>
+  <si>
+    <t>에이블뉴스 - 제주도 관광약자 ‘커뮤니케이션 지원보드’ 제작 [메뉴 건너뛰기] 바로가기 -서비스목록선택- 전체기사 많이본기사 알려드립니다 자유게시판 친구합시다 로그인 | 회원가입 검색 검색 폼검색 범위 통합검색 뉴 스 뉴스태그 포 토 동영상 -이슈동영상 -수화동영상 -오디오뉴스 지식짱 -Q &amp; A -지식자료실 블로그 사이트 검색어 인기검색어 코로나19 | 탈시설 | 집중호우 주요서비스 추천컨텐츠[모집] 현재 에이블서포터즈 회원 명단입니다. 뉴스기사분류 전체기사 | 기획특집 | 정보세상 | 오피니언 | 정치/정책 | 인권/사회 | 노동/경제 | 통합교육 | 복지/건강 | 여성/아동 | 자립생활 | 문화/체육 | 인물/단체 | 전국넷 강원·제주 서브메뉴 전체기사 기사제보 많이본기사 취재수첩 세상이야기 댓글 열전 공식블로그 주요행사 에이블서포터즈 장애인신문고 - 발달장애인이 행복한 삶 '주간활동서비스' 사업 안내 - 한국장애인개발원 장애인식개선 유튜브 채널 '당장만나' 뉴스홈 &gt; 전국넷 &gt; 강원·제주 http://abnews.kr/19ox 본문시작 제주도 관광약자 ‘커뮤니케이션 지원보드’ 제작 접근성안내센터, 그림문자 구성…숙박지 등 비치 에이블뉴스, 기사작성일 : 2015-12-23 08:59:24 ▲ ‘커뮤니케이션 지원보드’.ⓒ제주도관광약자접근성안내센터 제주특별자치도관광약자접근성안내센터가 ‘커뮤니케이션 지원보드’를 제작해 이달부터 무료로 배포하고 있다고 23일 밝혔다.‘커뮤니케이션 지원보드’란 청각 및 지적장애인, 의사표현이 어려운 관광약자(외국인 포함)들이 제주 관광시 의사소통에 필요한 언어를 대신하는 역할을 하는 안내서다.제주지역 관광사업체(관광지, 숙박지, 음식점)에서 주로 쓰이는 문장들을 모아 보드로 제작해 제공하고 있다.보드에는 한국어, 중국어, 일본어, 영어 총 4개의 언어로 번역되어 있으며 보다 쉽게 이해할 수 있도록 그림문자(픽토그램)로 구성돼 있는 것이 특징이다.고현수 센터장은 “실제 관광에 있어 기본이 되는 의사소통의 문제를 해결함으로써 향후 제주를 방문하는 관광약자들이 보다 편안한 여행을 할 수 있을 것”이라고 말했다.‘커뮤니케이션지원보드’는 해당 관광지, 숙박지, 음식점 등 관광객이 주로 찾는 장소에 비치될 예정이다.&lt;문의&gt; 제주도관광약자접근성안내센터 1566-4669-장애인 곁을 든든하게 지켜주는 대안언론 에이블뉴스(ablenews.co.kr)--에이블뉴스 기사 제보 및 보도자료 발송 ablenews@ablenews.co.kr- 이슬기 기자 (lovelys@ablenews.co.kr) 이슬기 기자의 다른기사 보기 ▶ &lt; 네이버에서 에이블뉴스를 쉽게 만나보세요! &gt; &lt;내손안의 에이블뉴스~ 언제 어디서나 빠른 장애인계 소식~&gt; [저작권자 ⓒ 에이블뉴스, 무단 전재 및 재배포 금지] 제주특별자치도관광약자접근성안 커뮤니케이션 최신기사목록 기사분류 기사제목 글쓴이 등록날짜 전국넷 &gt; 강원·제주 제주서 발달장애 정은혜 작가와 장애인식개선 행사 진행 이슬기 기자 2022-10-06 14:30:16 전국넷 &gt; 강원·제주 강원발달센터, ‘발달장애인 부모교육·가족휴식지원사업’ 수기 공모 백민 기자 2022-09-30 09:07:48 전국넷 &gt; 강원·제주 서귀포시IL센터 ‘우리가족 책 만들기’ 참여 가정 모집 이슬기 기자 2022-09-26 15:18:38 [전체] 가장 많이 본 기사 1위 교통약자 위한 역사 내 길안내 서비스 즉... 2위 장애예술인 인터뷰, 소설가 이서진 3위 [부고] 한국장애인연맹 송영욱 전 회장 ... 4위 ‘의학적 판단 중심’ 발달장애인 활동지... 5위 장애인활동지원기관 주민세 감면 대상 포... 인기검색어 순위 lpg 시급 탈시설 코로나19 장애인활동지원 장애인 집중호우 지적장애 시각장애인 한국장애인고용공단 [강원·제주] 많이 본 기사 제주서 발달장애 정은혜 작가와 장애인식개선... 댓글이 더 재미있는 기사 전화로 예약하는 것보다 더 중요한게 빠져있다 전국의 잔영휴양림에 국립의 경우에는 대부분 ... 발달장애인 주간활동서비스 ‘그림의 떡... [4] ‘우영우’는 없다, 발달장애인 가족은 ... [3] 장애인활동지원 본인부담금 납부 ‘후덜... [3] 발달장애인 고용 창출, '먹튀'는 안 된다 [2] 연이은 장애인 폭우·화재 참사, 남 일 ... [1] 주간 베스트 기사댓글 국회의원이 그것도 모르나. [15]장애인 등록 부터 하고 중증판정 받... [11]문재인이 눈시울 붉히며 [9]기사는 좋은데... 사진이 에바다. [8]나도 사진이 GSGG 네 [6] 새로 등록된 포스트 경인장애인자립생활센터 22년 8월 뉴스레터 Vol.13 경인장애인자립생활센터 8월호 뉴스레터가 나왔... (46.)프란치스코 교황님 회칙 『찬미받으..♣(핸드폰 컴퓨터 정보 유출) 내PC돌보미..필터 샤워기 추천 제품♣ 서울세계불꽃축제 2022마음이 흐뭇해진다는 것이란?|김일권 요.. 에이블뉴스는? 언론사소개 에이블서포터즈 장애인신문고 온라인광고 제휴사 개인정보취급방침 이용약관 사이트오류신고 사이트맵 도움말 (주)에이블뉴스 / 사업자등록번호:106-86-46690 / 대표자:백종환,이석형 / 신문등록번호:서울아00032 / 등록일자:2005.8.30 / 제호:에이블뉴스(Ablenews) 발행,편집인:백종환 / 발행소:서울시 용산구 한강대로7길 17 서울빌딩1층(우04380) / 발행일자:2002.12.1 / 청소년보호책임자:권중훈 고객센터 Tel:02-792-7785 Fax:02-792-7786 ablenews@ablenews.co.kr Copyright by Ablenews. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 11개 관광개발사업 기간 연장 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도 11개 관광개발사업 기간 연장 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도 11개 관광개발사업 기간 연장 CBS노컷뉴스 김대휘 기자 메일보내기 2015-12-23 11:31 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 준공을 앞둔 대규모 관광개발 사업들이 투자 자금 미확보와 분양시장 침체 등의 이유로 기간내 개발 사업을 마무리 하지 못하고 있다. 제주도는 올해말까지 관광개발 사업을 마무리하기로 한 11개 대규모 개발사업에 대해 사업시행 승인 기간을 모두 연장했다. 개발사업 기간이 올해 마무리 되는 이들 사업장들은 공동개발 사업이 무산되거나 자금조달이 어렵다는 이유를 밝힌 것으로 나타났다. 특히 함덕관광지와 토산관광지 개발사업은 개발사업지역내 토지를 확보하지 못해 민원이 발생한 것으로 파악됐다. 더 클릭 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "좋은 냄새난다" 병사들 상습 추행 …"징계 가혹"하다는 군 간부 [르포]'나눔이·농부' 판치는 다크웹…'마약과의 전쟁' 비웃나 [칼럼]핵위협 공포에 휩싸인 한반도 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 CBS노컷뉴스 김대휘 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>중국 의료관광객 대거 유입 기대… 제주도 몫인 ‘안전관리’ 보완 필요 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|사회 중국 의료관광객 대거 유입 기대… 제주도 몫인 ‘안전관리’ 보완 필요 유근형기자 입력 2015-12-21 03:00업데이트 2015-12-21 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 [투자개방형 병원의 명과 암]&lt;上&gt;예상 효과와 의료의 質 《 외국계 투자개방형 병원(영리병원)은 국내 보건의료 체계의 뜨거운 감자였다. 2002년 김대중(DJ) 정부가 경제자유구역과 제주도에 투자개방형 병원 설립을 허가한 이후 13년 동안 논란만 거듭하다 구체적인 성과물을 내지 못했다. 정부가 18일 국내 1호 투자개방형 병원인 뤼디그룹의 녹지국제병원 설립을 승인하면서 다시 한 번 시험대에 오르게 됐다. 투자 유치와 일자리 창출의 보고가 될 것인가? 의료 영리화의 신호탄이 될 것인가? 1호 투자개방형 병원 탄생의 기대와 개선 방향을 전망해 봤다. 》“제주도에 중국계 자본이 투자한 병원이 생기면 훨씬 더 많은 사람들이 제주도에 오래 머물게 될 것이다.” 중국인 후안 왕 씨(35)는 지난해 제주 서귀포시의 아파트 한 채를 구입했다. 서귀포는 제주영어교육도시 등 영어교육 시설까지 풍부해 휴양과 교육을 겸할 수 있는 장소로 여겨졌다. 하지만 믿을 수 있는 병원이 없는 것이 항상 불만이었다. 왕 씨는 “제주도는 그동안 중국 친화적이라는 느낌이 부족했다”며 “2017년 중국계 병원이 생기면 중국인들이 더 좋은 감정을 갖게 될 것이다”라고 기대했다. ○ 국내 거주 중국인 심리적 안정감에 도움 제주 서귀포시 토평동에 중국계 외국인 병원이 들어서면 한국에 대한 중국인들의 인식을 바꾸는 계기가 될 것으로 기대된다. 예컨대 국내에 장기 거주하는 중국인과 관광객들에게 ‘한국은 안심할 수 있는 나라’라는 심리적 안정감을 줄 수 있다. 이는 한국행을 망설였던 중국인 관광객과 환자들의 제주행을 결심하는 데도 도움이 될 것으로 보인다. 제주시에 편중된 제주도 내 의료관광객이 서귀포로 분산되면서 시너지 효과를 낼 수도 있다. 제주도가 이 병원을 통해서만 연간 1만 명 이상의 외국인 환자를 유치하겠다고 밝힌 것도 이 때문이다. 중국 의료계에 남아 있던 ‘한국은 의료법 규제가 심해 진출하기 어려운 나라’라는 인식도 줄어 앞으로 다른 경제자유지역의 외국병원투자 유치에도 도움이 될 것으로 전망된다.○ 투자개방형 병원 중장기 마스터플랜 필요 1호 투자개방형 병원 도입이 국내 의료체계에 미치는 영향은 제한적일 것으로 보인다. 녹지국제병원은 진료과목이 4개(성형외과 피부과 내과 가정의학과)로 47병상의 소형병원에 불과하다. 더구나 한국인이 이 병원에 가면 건강보험 혜택을 받지 못하기 때문에 방문객도 많지 않을 것으로 예상된다. 녹지국제병원 하나만으로는 국내 의료비가 오르고 건강보험 체계가 위협받을 가능성은 거의 없다는 이야기다. 하지만 이런 병원들이 우후죽순으로 늘어날 경우는 얘기가 달라진다. 특히 국내 대형병원들이 외국 자본과 합작 투자를 통해 대형 투자개방형 병원을 세울 경우가 문제다. 이럴 경우 국내 고급진료 수요가 커지면서, 병원들이 의료의 공공성보다는 수익 추구에 집중할 우려가 있다. 이 때문에 국내 의료 체계 내에서 몇 병상까지 투자개방형 병원을 허용할 것인가에 대한 장기적 접근이 필요하다는 지적이 나온다.○ 의료 안전 관리 사각지대 우려 또 투자개방형 병원이 과연 우수한 의료 서비스를 제공할 것인지도 우려된다. 국내 병원들은 건강보험공단과 건강보험심사평가원(심평원)의 진료비 심사를 통해 적절한 관리감독을 받고 있다. 하지만 투자개방형 병원은 건강보험이 적용되지 않는 진료를 하기 때문에 불법 줄기세포 시술과 같은 안전성이 검증되지 않은 의료 행위가 일어날 가능성이 있다. 특히 진료 적절성에 대한 관리는 중앙 정부가 아닌 제주도 소관이라 관리망이 허술한 편이다. 김건훈 보건복지부 보건의료정책과 서기관은 “투자개방형 병원에 대한 관리감독을 나갈 때 중앙의 심평원 인력이 동행하는 등의 보완 조치를 강구하고 있다”고 말했다.○ 외국인 의사 진료 세부 허가기준 필요 의료진의 수준을 유지하기 위한 후속 대책이 필요하다는 지적도 나온다. 제주도특별자치법에 따르면 투자개방형 병원에 근무하는 외국인 의사는 국내 의사 면허가 없어도 된다. 자격 및 경력의 제한을 받지도 않고, 관련 서류를 제주도에 제출하고 허가받기만 하면 된다. 예를 들어 전문의가 아니고, 경험이 적어도 진료가 가능하다는 것. 특히 중국에서 중의학을 전공한 한국인들도 이 병원에서 근무할 수 있다. 홍민철 한국의료수출협회 사무총장은 “중국은 의사가 귀하기 때문에, 우수한 중국 의사가 국내까지 들어와 진료를 할 가능성은 낮다”며 “질 낮은 의사를 걸러내기 위해 외국인 의사의 국내 진료 허가에 대한 세부 기준을 만들 필요가 있다”고 지적했다. 녹지국제병원은 최대한 한국 의사를 중용해 의료의 질을 담보한다는 방침을 세웠다. 복지부 관계자는 “주 인력은 한국인 의사일 가능성이 높기 때문에 중국 의사들이 국내에 들어와도 한국 의사의 보조 역할밖에 하지 못할 공산이 크다”고 전망했다.유근형 기자 noel@donga.com#중국#의료관광객#제주도#안전 구독 유근형 기자 동아일보 정책사회부 noel@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 5 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 8 “간사 간 협의하라” “체면 좀 차려라”…감사원 국감 8분만에 파행 9 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 10 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 최신기사 신혜성 측 “만취해 본인 차 아닌 줄 몰라…변명 여지 없다” 軍, 북한 ‘저수지 SLBM’ 발사에 “‘킬체인’ 의식한 궁여지책” “학교급식 종사자, 폐암 의심 유병률 일반인 35배” “2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄 與, 김용민 ‘尹 퇴진’ 발언에 “불법 쿠데타 획책” “충격적 망언” 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 경제성장률 '4.8%'↑..."관광산업이 주도" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 경제성장률 '4.8%'↑..."관광산업이 주도" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 경제성장률 '4.8%'↑..."관광산업이 주도" 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.23 15:56 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 개인소득은 전국평균 하회...서비스업 점유율 부쩍↑ ▲ 자료=통계청 제주의 2014년 경제성장률이 최종 4.8%로 전국 시.도 중 3번째로 높은 상승률을 보인 것으로 집계됐다.통계청은 23일 2014년 기준 지역내 총생산(GRDP) 확정 추계결과를 발표했다.이 결과에 따르면 제주의 GRDP는 13조9000억원으로 전년보다 약 7000억원(5.3%)이 증가했다.전국 명목 지역내총생산은 1485조원으로 전년보다 약 54조원(3.8%) 증가했다.실질 지역내총생산(경제성장률)은 전년대비 4.8% 성장해 경기 5.6%, 충남 4.9%에 이어 전국 3위(전국 평균 3.3%)를 차지했다.산업별 생산비중은 관광산업을 아우르는 서비스업 및 기타 75.9%를 차지했다. 이는 전년도 71.6%와 비교해 약 4%포인트 가량 높아진 것이다.도민 1인당 지역내총생산은 2391만1000원, 개인소득 1567만1000원으로 전년대비 각각 3.2%, 1.5% 증가했다.그러나 전국평균(지역내 총생산 2944만1000원, 1인당 개인소득 1656만4000원)과 비교해서는 여전히 평균치를 하회했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 농어촌체험휴양마을 관광 활성화 워크숍 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 농어촌체험휴양마을 관광 활성화 워크숍 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도, 농어촌체험휴양마을 관광 활성화 워크숍 개최 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.25 06:56 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 23일 제주시 미래컨벤션센터에서 사단법인 제주특별자치도 농어촌체험휴양마을협의회와 공동으로 농어촌체험 관광 활성화를 위한 워크숍을 개최했다.워크숍에서는 전문가 특강 및 토론을 통해 체험휴양마을의 역량 강화와 발전 방향에 대한 논의가 이뤄졌다.농림축산식품부 최춘태 사무관의 '2016년 농림축산식품부 정책방향', 오창현 제주관광공사 단장의 '농촌체험관광 융복합과 소비자의 트랜드', 김학모 한국자치경제연구원장의 '농촌체험관광을 위한 마을의 과제와 방안' 등의 주제발표가 이어졌다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>김종덕 문화체육관광부 장관 '제주도, 축하해요' 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 최신포토인기포토해외포토분야별포토연예스포츠슬라이드펫카드그래픽뉴스 홈 &gt; 포토 &gt; 문화 &gt; 문화정책 최근 슬라이드 선택 이전 다음 김종덕 문화체육관광부 장관 '제주도, 축하해요' 2015/12/20 14:13 송고 이전 다음 정지 자동넘김 시작 자동넘김 멈춤 (서울=뉴스1) = 김종덕 문화체육관광부 장관(오른쪽)이 20일 중국 칭다오 샹그릴라호텔에서 열린 '칭다오 액션플랜서명식’을 마친 뒤 동아시아문화도시패를 권영수 제주도 행정부지사에게 전달하고 있다. (문화체육관광부 제공) 2015.12.20/뉴스1		kyunghoda@news1.kr 기사원문보기 댓글보기 인기 화보 갤러리 [연예가화제] 3년 만에 관객 품으로 돌아온 BIFF [국회ㆍ정당] 윤석열 정부 첫 국감 시작..여야 전방위 격돌 [국방ㆍ외교] '바다 위 군사기지' 美 핵항모 로널드 레이건호, 부산 입항 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>[방송가 경제 진단] "제주도 영리병원, 중국 관광객 미용·성형 목적인가" &lt; 산업 &lt; 기사본문 - 초이스경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED. 2022-10-11 11:44 (화) 로그인 회원가입 모바일웹 전체메뉴 버튼 뉴스+ 경제 산업 금융 피플 포토 뉴스 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [방송가 경제 진단] "제주도 영리병원, 중국 관광객 미용·성형 목적인가" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 [방송가 경제 진단] "제주도 영리병원, 중국 관광객 미용·성형 목적인가" 기자명 김슬기 기자 승인 2015.12.22 10:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 반대 측, "당초 정부 취지와 안 맞고 실익 없다" 주장 ▲ 의료민영화저지범국본과 무상의료운동본부 회원들이 제주 녹지국제영리병원 승인에 대한 기자회견을 하고 있다. [초이스경제 김슬기 기자] 중국 녹지그룹의 '녹지국제병원' 승인을 두고 기대와 우려의 목소리가 동시에 제기되고 있다. 설립 찬성 측은 의료관광 활성화 및 일자리 창출효과를 기대하는 반면 반대 측에서는 의료시장 양극화 및 진료비 상승, 공공의료 붕괴를 우려하는 모습이다.이런 가운데 MBC '신동호의 시선집중'에서는 지난 21일 영리병원 설립 찬성 입장을 전한 데 이어 이번에는 반대하고 있는 사람들의 의견을 전해 눈길을 끌었다.22일 '시선집중'에 출연한 노환규 전 의사협회장은 먼저 "제주특별자치도에 생기는 영리병원은 당초 정부가 경제자유구역에 영리병원을 허용하려 했던 취지에 맞지 않는다"며 "처음에는 외국인 관광객을 유치하고 외국인들을 진료하기 위한 목적의 병원이 필요했기 때문에 우리나라 의료발전에도 기여할 수 있는 유명 대형 병원을 유치하려는 목적이었지만 녹지국제병원의 경우 병상도 아주 적을 뿐 아니라 진료과목도 피부과, 성형외과 등 미용성형에 집중돼 있다"고 설명했다.또한 "대한민국에서 첫 번째 영리병원이라는 상징적인 의미 외에는 아무런 실익이 없을 뿐 아니라 향후 가져올 파장이 더 크다"며 "직원 134명 중 의료인은 37명에 불과해 또 다른 목적을 가진 '무늬만 병원'으로 평가된다"고 주장했다.싱가포르나 태국에서는 외국인을 대상으로 한 의료서비스가 관광과 연계된 프리미엄 서비스로 발전하고 있다는 지적에 대해서는 "우리나라 의료관광이 이미 많이 성장하고 있는데 영리병원 비 허용이 성장제약 요인은 아니었다"며 "오히려 국내에선 여러 가지 치료방법이 있어도 정부 규제 때문에 의료진이 마음대로 선택할 수 없는 규제문제를 풀어나가는 게 먼저다"고 말했다.‘제주도를 찾는 중국관광객을 대상으로 실익이 있을 것이다’는 주장에 대해서는 "이미 중국 관광객은 우리나라 성형기술에 대한 높은 신뢰도를 가지고 있어서 국내 의료기관을 많이 찾고 있다"며 "굳이 중국자본을 끌어와 중국 병원을 설립해야 하는 이유가 없다"고 반박했다.노환규 전 의료협회장은 "녹지국제병원 설립으로 영리병원에 대한 논의가 더 활발하게 이뤄질 것으로 생각되는데 사실 우리나라 의료기관 중 95%가 민간 의료기관이기 때문에 이미 영리를 추구하고 있다"며 "다만 영리만을 추구할 목적으로 투자자들로부터 돈을 받아 의료기관을 세우는 것과는 가치가 매우 다르다"고 강조했다.그러면서 "비 의료인들이 의료인을 고용해서 돈을 벌 목적으로 의료기관을 운영하는 일부 '사무장 병원'의 불법행위를 단속하고 차단할 수 있는 방책에 대한 논의가 있어야 한다"고 말했다.또한 "의료기관을 굳이 비 영리기관으로 묶어놓는 이유는 환자의 생명을 다루는 의료서비스가 매우 중요하면서도 전문적인 분야여서 불법 여부를 파악하기 힘들기 때문이다"며 "결국 의료기관의 경영자 윤리에 의존할 수밖에 없고 고용된 의료인도 경영자의 의지에 따르게 된다는 점을 감안하면 영리병원에서는 우려되는 점이 많다"고 덧붙였다. 김슬기 기자 seul8952@choicenews.co.kr 다른기사 보기 저작권자 © 초이스경제 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 대구에서도 감귤 재배 성공 정해인 '빛나는 외모' '한땀 한땀' 퀼트 세계 "장미가 예쁘네" 붉게 물들어가는 '코키아' 제주 범섬의 일출 K팝 콘서트의 열기 제주 무지개 해안도로 어때요 인기 기사 1 '두 악재' 미국증시 '강타', 나스닥 · 반도체주 '휘청' 2 미국증시 나스닥100 '폭락'...반도체 · 전기차주 '추락', 거의 전종목 '하락' 3 미국증시 다우존스 지수 '급락'...머크 빼고 '전멸', 인텔 · 애플 '뚝' 4 美실업률 '뚝', AMD '악재'...미국증시 장중, 나스닥 · 반도체주 '폭락' 5 국경절 연휴 끝낸 중국증시, 1%대 '급락 마감' 6 中 "대만 TSMC, 중국시장 잃고 한국이 대신 차지할 수 있다" 7 중국 측 "미국의 대중국 반도체 수출 제한, 타격 미미" 8 미국증시 S&amp;P500 '추락'...AMD · MPWR '급락 ' vs DXCM · 할리버튼 '껑충' 9 美실업률 '하락'...유럽증시 '뚝', 미국증시 '장중추락', 테슬라 '장중급락', 美국채금리 '껑충'' 10 중국 국경절 황금연휴, 관광 · 영화 · 유통서 활발한 '소비 활동' 굿모닝 경제 뉴스 미국 대기업 CEO 보수, 직원의 400배...격차 더욱 확대 [초이스경제 곽용석 기자] 미국 기업의 CEO 보수가 주가 상승을 웃도는 속도로 증가하는 것으로 조사됐... '악재 속출'...미국증시 자동차주 '줄줄이 급락' 미국증시 다우지수 '하락'...머크 · 애플 '상승' vs CRM ·MSFT· 인텔 '뚝' 홍콩 경매에서, 핑크 다이아몬드 가격 '새 기록' 달성 HOT 클릭 뉴스 "태양 미스테리 풀자"...중국 태양관측 위성 발사 성공 [초이스경제 홍인표 기자] 중국이 태양의 미스테리를 풀기 위한 노력으로 태양 관측 전문위성 과푸(夸夫) ... 홍콩이 관광 부흥 위해 꺼내든 비장의 카드는? 중국 측 "미국의 대중국 반도체 수출 제한, 타격 미미" ACEA "유럽 올해 신차 판매 전망 대폭 하향, 역성장 우려" 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 마포구 백범로31길 8 , 제업무시설동 403호·404호 (공덕SK리더스뷰) 대표전화 : 02-565-7276 팩스 : 02-2234-7276 청소년보호책임자 : 이미애 법인명 : 주식회사 초이스경제 제호 : 초이스경제 등록번호 : 서울, 아02162 등록일 : 2012-06-18 발행일 : 2012-07-05 발행인 : 최원석 편집인 : 이영란 초이스경제 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 초이스경제. All rights reserved. mail to webmaster@choicenews.co.kr 위로 전체메뉴 전체기사 경제 전체 경제 글로벌 IT 경제 핫 이슈 경제 · 산업 이슈 세계 부동산 소식 재벌뷰 산업 전체 산업 글로벌 IT 세계 부동산 소식 경제 · 산업 이슈 금융 전체 금융 뉴스 국내 금융 마켓 핫 이슈 환율 보도자료 피플 전체 칼럼 인사 동정 장경순의 만필세상 포토 뉴스 전체 포토 뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 가을 관광주간 효과 '톡톡' &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 가을 관광주간 효과 '톡톡' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도, 가을 관광주간 효과 '톡톡' 기자명 김하나 기자 입력 2015.12.15 20:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 지난 10월19~11월1일 유입인구 65만210명메르스 등 악재에도 전년대비 38.2% 증가 제주도가 '2015 가을 관광주간' 시행으로 가장 큰 효과를 본 것으로 나타났다.문화체육관광부는 지난 10월19일부터 14일간 진행된 '2015 가을 관광주간' 직접적 경제효과는 2조 5521억원에 달하며 국민의 이동 총량 4008만 일 이라고 밝혔다.세월호 침몰·메르스 파동 등의 악재에도 불구하고 '관광주간' 시행 1년만에 효과를 본 것이다.15일 한국문화관광연구원에서 발행한 '2015 관광주간 국민 참여 실태조사'에 따르면 이번 가을 관광주간에 국민의 절반가량인 48.3%(약 1987만 명)가 여행을 다녀왔으며 그중 국내여행 비율은 무려 92.7%에 이르는 것으로 조사됐다.관광주간은 여름철에 집중된 국내여행의 수요를 분산하고 신규 관광수요를 창출하기 위해 마련, 이번 가을 관광주간은 당초 취지에 따라 눈에 띄는 성과를 보였다.특히 한국관광공사가 빅데이터에 기반한 국민관광 이동행태를 분석한 결과 제주도에는 해당 기간동안 65만210명이 방문한 것으로 집계되면서 지난해 같은 기간보다 38.2% 증가, 전국에서 가장 높은 증가율을 기록했다.문체부 정책 담당자는 "2015 가을 관광주간은 여행자 수와 이동 총량, 총지출액 등 정량적 지표뿐만 아니라 만족도 등의 정성적 지표도 2014년 가을이나 올해 봄 관광주간보다 성과가 있었다"며 "2016년에도 국내여행을 즐길 수 있도록 관광주간 시기를 확정하고, 관광 콘텐츠 확보와 대국민 홍보 강화 등에 주력할 계획"이라고 말했다. 김하나 기자 hana4557@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 관광인 송년 친선골프대회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 관광인 송년 친선골프대회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회 관광인 송년 친선골프대회 개최 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.17 13:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 골프동호회(회장 고상윤 송당승마장 대표)는 16일 라온골프클럽에서 회원사 임직원 및 가족 등 동호회 회원 70여명이 참가한 가운데 관광인 송년 친선골프대회를 개최했다.이번 대회는 관광인 송년 친선골프대회로 진행하면서 관광인들의 친선도모 및 고부가가치 골프관광객 유치를 위한 관광업계 종사자들의 의견교환, 관광객 유치 증진 및 만족도 제고를 위한 방안 모색 등 의견수렴도 함께 진행됐다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광객 사상 첫 '1300만명' 돌파 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객 사상 첫 '1300만명' 돌파 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 관광객 사상 첫 '1300만명' 돌파 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.14 13:16 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 메르스 여파 불구, 국내관광객 급증 올해 중동호흡기증후군 메르스(Mers) 여파에도 불구하고 제주도 방문 관광객이 사상 처음으로 1300만명을 돌파했다.제주특별자치도관광협회(회장 김영진)은 올해들어 12월13일까지 제주를 찾은 관광객은 총 1297만4923명으로, 14일 중 1300만명을 넘어선다고 밝혔다.이는 지난해보다 10.5% 증가한 것으로, 제주관광 역대 최고 규모다.내국인관광객은 지난해보다 무려 22.6% 증가한 1046만1646명이 방문한 것으로 집계됐다. 봄철 관광주간 및 5월 연휴, 여름 휴가시즌 등에서 내국인 수요가 집중적으로 몰리면서 큰 증가세를 보였다.반면 올해 5월까지 상승세를 이어나가던 외국인관광객은 9월 이후 다시 평년 수준으로 회복되고 있으나, 6~8월 메르스 여파로 인한 타격으로 현재까지 누적 251만3277명에 그쳤다. 지난해보다 21.7% 감소한 것이다. 한편 제주도관광협회는 일본 직항노선 재개와 계속적인 관광마케팅 노력에 힘입어 앞으로도 입도관광객 상승세는 지속될 것으로 전망했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 신임 부회장 장성욱 위원장 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 신임 부회장 장성욱 위원장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회 신임 부회장 장성욱 위원장 기자명 문준영 기자					(moonsoyo@jejusori.net) 입력 2015.12.11 17:46 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 장성욱 신임 제주도관광협회 부회장. 김영진 제주도관광협회장은 지난 10일 업종별분과위원장단 회의에서 장성욱(52) 렌트카업분과위원장을 제주도관광협회 부회장으로 선임했다.장 신임 부회장은 제주공항렌터카 대표이사와 제주도자동차대여사업조합 이사장을 맡고 있다.제주도관광협회 정관상 부회장은 회장이 지명할 수 있으며, 수석부회장을 포함해 총 8명을 임명하게 돼 있다. 현재 제주도관광협회 부회장에는 주풍채 송죽레져관광 대표이사(수석 부회장), 김두흥 그랜드투어 대표이사, 김경희 보오메꾸뜨르부띠끄호텔 대표이사, 문일남 탐라원관광쇼핑센터 대표이사, 고승철 삼영관광 일출랜드 전무, 이중환 제주도 문화관광스포츠국장, 부동석 중문덤장 대표이사, 장성욱 위원장이 이름을 올리고 있다. 문준영 기자 moonsoyo@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사랑나눔봉사단, '김장 나눔' 행사 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 사랑나눔봉사단, '김장 나눔' 행사 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회 사랑나눔봉사단, '김장 나눔' 행사 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.13 14:46 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 12일 제주웰컴센터에서 소외된 어려운 이웃들을 위한 '김장 나눔활동'을 전개했다.사랑나눔봉사단은 지난 2012년 6월 출범 후 현재 280여명의 후원회원이 활동하고 있으며 제주도내 소외계층 및 사회복지시설 방문 봉사활동, 성금 모금 캠페인, 관광과 문화를 접목한 관광활동 지원, 사회적 이슈와 연계한 지역사회 공헌활동 등을 꾸준히 전개하고 있다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 장성욱 부회장 선임 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 장성욱 부회장 선임 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회 장성욱 부회장 선임 기자명 고연정 기자 입력 2015.12.11 17:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 신임 장성욱 도관광협회 부회장[제주도민일보=고연정 기자] 제주특별자치도관광협회 김영진 회장은 지난 10일 업종별분과위원장단 회의에서 장성욱 렌트카업분과위원장을 도관광협회 부회장으로 선임했다.이는 그동안 공석으로 남아있던 부회장에 장 신임 부회장을 지명한 것이다.한편 협회 정관상 부회장은 회장이 지명할 수 있다. 수석부회장을 포함한 총 8명을 두게 돼있다. 고연정 기자 jjibi@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>장성욱 렌터카업분과위원장, 제주도관광협회 부회장에 선임 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 장성욱 렌터카업분과위원장, 제주도관광협회 부회장에 선임 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 장성욱 렌터카업분과위원장, 제주도관광협회 부회장에 선임 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.12.11 11:50 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × ▲ 신임 장성욱 제주도관광협회 부회장. ⓒ헤드라인제주 김영진 제주특별자치도관광협회장은 10일 업종별분과위원장단 회의에서 장성욱 렌트카업분과위원장을 제주특별자치도관광협회 부회장으로 선임했다.협회 정관상 부회장은 회장이 지명할 수 있으며, 수석부회장을 포함한 총 8명을 두게 돼 있다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>SK플래닛 T맵, 제주도 관광지 등 소개 : 스포츠동아 본문바로가기 로그인회원가입 지면보기 즐겨찾기 추가 전체메뉴보기 실시간 뉴스 연예 스포츠 포토 아이돌픽 트롯픽 엠엘비파크 인스타그램페이스북트위터검색 전체 검색 영역 전체 검색어 입력 검색 닫기 메뉴닫기 뉴스 실시간뉴스 연예 스포츠 포토 아이돌뉴스 인터뷰 기자스페셜 카툰 아이돌픽 동아닷컴 MLBPARK 비즈N VODA 보스 오늘의 운세 &lt;운수 좋은 날&gt;송혜교, 이제 나이테 느껴지는 성숙미스타들의 핫한 순간들 [화보] SK플래닛 T맵, 제주도 관광지 등 소개입력 2015-12-01 05:45:00 카카오톡 페이스북 공유하기 프린트글씨작게글씨크게 공유하기 닫기 SK플래닛은 제주관광협회로부터 제주도 내 숙박과 렌터카, 음식점, 기념품가게 등 다양한 업체들에 대한 최신 정보와 주요 관광지에서 제공하는 할인혜택 정보를 제공받아 모바일 내비게이션 T맵을 통해 서비스한다(사진). 제주도에서 T맵을 켜고 목적지를 검색하면 주변 추천 관광지와 함께 주변 매장들의 정보가 노출되고, 제주여행포털 하이제주(www.hijeju.or.kr)와의 연계를 통해 추가 관광지 정보나 제휴할인 쿠폰 등을 제공하는 방식이다.[스포츠동아] 베스트 클릭1.홍진영, 더욱 앙상해진 몸매 [DA★]2.‘♥김준호’ 김지민 “쌍둥이 임신, 혼인 신고설 난리가 났다” (미선임파서블)3.조형기 미국에 있었다? 뜻밖의 근황설 [종합]4.최불암 근황 공개, ‘회장님네 사람들’ 게스트 출격 [공식]5.하니, 10세 연상 양재웅♥에 가스라이팅? “심신미약자 아냐” (레오제이)6.“집도 사주고파” 의뢰인 남친 미모 난리→서장훈도 인정 (물어보살)7.19세 김가연 “4살딸 양육비 달라”…전 남편 충격+분노유발 (고딩엄빠2)8.김혜자 눈물→최불암 근황 공개, ‘회장님네’ 오늘 첫방 [DA:투데이]9.80억 매출 현영, 맘카페들 난리 날 일상 (호적메이트)10.성유리 “여긴 KBS입니다” 화들짝→김창옥이 뭐랬길래? 뉴스스탠드 회사소개 지면광고문의 구독신청 인터넷광고문의ㆍ사업제휴 청소년보호정책(책임자: 구민회) 이용약관 개인정보처리방침 사이트맵 스포츠동아의 모든 콘텐츠를 커뮤니티, 카페, 블로그 등에서 무단 사용하는 것은 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright by sports.donga.com Email</t>
+  </si>
+  <si>
+    <t>제주도관광협, 겨울철 관광수요 창출 마케팅 실시 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협, 겨울철 관광수요 창출 마케팅 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협, 겨울철 관광수요 창출 마케팅 실시 기자명 고나연 기자 입력 2015.12.07 07:46 수정 2015.12.07 07:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난 2일 대구백화점과 3일 서울 종로구 인사동 일대에서 겨울철 제주관광수요 창출을 위한 거리 대면 마케팅 행사를 실시했다고 밝혔다.이번 행사는 지역, 테마, 부문별 제주지역 전문여행사에서 개발한 이색체험 상품인 “행복이 물드는 돌코롬한 제주바당” 상품, “골프체험상품”, 힐링과 체험을 결합한 “멘도롱 또똣 제주여행” 등 거리에서 제주관광상품을 소개했다.이어 자연식재료를 활용한 먹거리 체험과 자연염색 체험 상품인 “메아리 소리가 들려오는 제주여행” 등 여행상품에 대해 거리에서 시민들을 대상으로 직접 대면해 상품을 홍보하는 행사를 실시했다. 이와 함께 이번 행사는 제주들불축제 등 제주시 관광축제 홍보와 병행해 추진했으며 시민들의 집중도를 높이기 위해 제주의 독특한 문화를 느낄 수 있는 전통민속공연과 제주어 노래 등 다양한 이벤트 체험 프로그램 선보여 서울시민들에게 큰 관심과 호응을 얻었다.관계자는 "관광협회는 이번 행사를 통해 차별화된 제주의 특화상품 개발 및 발굴을 지속 추진해 제주관광 상품 경쟁력을 높이는데 최선의 노력을 다하겠다"고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -407,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,9 +530,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -440,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -461,9 +560,6 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -473,7 +569,221 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
